--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CCCE57-6D00-4B30-ADD0-37372CFB5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8A569-9E3C-447D-8CD7-4FDA2B378E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8A569-9E3C-447D-8CD7-4FDA2B378E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530AF44-C399-43F9-B89B-A67548D6F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1428,6 +1428,12 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Largest Rectangular Area in a Histogram</t>
+  </si>
+  <si>
+    <t>Zigzag (or diagonal) traversal of Matrix</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,6 +1548,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1859,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1927,7 +1939,7 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8">
-        <f t="shared" ref="A8:A41" si="0">A7+1</f>
+        <f t="shared" ref="A8:A42" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2436,7 +2448,16 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
-      <c r="C42" s="7"/>
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2500,7 @@
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46">
-        <f t="shared" ref="A46:A53" si="1">A45+1</f>
+        <f t="shared" ref="A46:A54" si="1">A45+1</f>
         <v>3</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2595,6 +2616,18 @@
       </c>
       <c r="D53" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -8611,7 +8644,10 @@
     <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C42" r:id="rId447" xr:uid="{E3C7C778-400E-4040-8C40-EB13BAE7335A}"/>
+    <hyperlink ref="C54" r:id="rId448" xr:uid="{D63F5A5F-094C-45DC-8BA6-D7BE5581DA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId449"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530AF44-C399-43F9-B89B-A67548D6F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E576E1-094A-46C8-B251-B7B4B4BF3400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Find a specific pair in matrix</t>
   </si>
   <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
     <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
   </si>
   <si>
@@ -1434,13 +1431,16 @@
   </si>
   <si>
     <t>Zigzag (or diagonal) traversal of Matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees (Clockwise and anticlockwise)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,13 +1502,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1524,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,6 +1566,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1871,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1889,7 +1910,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2456,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>4</v>
@@ -2558,18 +2579,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21">
-      <c r="A50">
+    <row r="50" spans="1:4" s="13" customFormat="1" ht="21">
+      <c r="A50" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2582,7 +2603,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>50</v>
+        <v>466</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>4</v>
@@ -2597,7 +2618,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>4</v>
@@ -2612,7 +2633,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>4</v>
@@ -2627,7 +2648,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -2640,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>4</v>
@@ -2655,10 +2676,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>4</v>
@@ -2670,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>4</v>
@@ -2685,10 +2706,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>4</v>
@@ -2700,10 +2721,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>4</v>
@@ -2715,10 +2736,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>4</v>
@@ -2730,10 +2751,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>4</v>
@@ -2745,10 +2766,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>4</v>
@@ -2760,10 +2781,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>4</v>
@@ -2775,10 +2796,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>4</v>
@@ -2790,10 +2811,10 @@
         <v>11</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>4</v>
@@ -2805,10 +2826,10 @@
         <v>12</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>4</v>
@@ -2820,10 +2841,10 @@
         <v>13</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>4</v>
@@ -2835,10 +2856,10 @@
         <v>14</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>4</v>
@@ -2850,10 +2871,10 @@
         <v>15</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>4</v>
@@ -2865,10 +2886,10 @@
         <v>16</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>4</v>
@@ -2880,10 +2901,10 @@
         <v>17</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>4</v>
@@ -2895,10 +2916,10 @@
         <v>18</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -2910,10 +2931,10 @@
         <v>19</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>4</v>
@@ -2925,10 +2946,10 @@
         <v>20</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>4</v>
@@ -2940,10 +2961,10 @@
         <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>4</v>
@@ -2955,10 +2976,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>4</v>
@@ -2970,10 +2991,10 @@
         <v>23</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>4</v>
@@ -2985,10 +3006,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>4</v>
@@ -3000,10 +3021,10 @@
         <v>25</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>4</v>
@@ -3015,10 +3036,10 @@
         <v>26</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>4</v>
@@ -3030,10 +3051,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>4</v>
@@ -3045,10 +3066,10 @@
         <v>28</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>4</v>
@@ -3060,10 +3081,10 @@
         <v>29</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>4</v>
@@ -3075,10 +3096,10 @@
         <v>30</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>4</v>
@@ -3090,10 +3111,10 @@
         <v>31</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>4</v>
@@ -3105,10 +3126,10 @@
         <v>32</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>4</v>
@@ -3120,10 +3141,10 @@
         <v>33</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>4</v>
@@ -3135,10 +3156,10 @@
         <v>34</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>4</v>
@@ -3150,10 +3171,10 @@
         <v>35</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>4</v>
@@ -3165,10 +3186,10 @@
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>4</v>
@@ -3180,10 +3201,10 @@
         <v>37</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>4</v>
@@ -3195,10 +3216,10 @@
         <v>38</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>4</v>
@@ -3210,10 +3231,10 @@
         <v>39</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>4</v>
@@ -3225,10 +3246,10 @@
         <v>40</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>4</v>
@@ -3240,10 +3261,10 @@
         <v>41</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>4</v>
@@ -3255,10 +3276,10 @@
         <v>42</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>4</v>
@@ -3270,10 +3291,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>4</v>
@@ -3289,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>4</v>
@@ -3304,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>4</v>
@@ -3319,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>4</v>
@@ -3334,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>4</v>
@@ -3349,10 +3370,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>4</v>
@@ -3364,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>4</v>
@@ -3379,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>4</v>
@@ -3394,10 +3415,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>4</v>
@@ -3409,10 +3430,10 @@
         <v>9</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>4</v>
@@ -3424,10 +3445,10 @@
         <v>10</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>4</v>
@@ -3439,10 +3460,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>4</v>
@@ -3454,10 +3475,10 @@
         <v>12</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>4</v>
@@ -3469,10 +3490,10 @@
         <v>13</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>4</v>
@@ -3484,10 +3505,10 @@
         <v>14</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>4</v>
@@ -3499,10 +3520,10 @@
         <v>15</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>4</v>
@@ -3514,10 +3535,10 @@
         <v>16</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>4</v>
@@ -3529,10 +3550,10 @@
         <v>17</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>4</v>
@@ -3544,10 +3565,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>4</v>
@@ -3559,10 +3580,10 @@
         <v>19</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>4</v>
@@ -3574,10 +3595,10 @@
         <v>20</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>4</v>
@@ -3589,10 +3610,10 @@
         <v>21</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>4</v>
@@ -3604,10 +3625,10 @@
         <v>22</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>4</v>
@@ -3619,10 +3640,10 @@
         <v>23</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>4</v>
@@ -3634,10 +3655,10 @@
         <v>24</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>4</v>
@@ -3649,10 +3670,10 @@
         <v>25</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>4</v>
@@ -3664,10 +3685,10 @@
         <v>26</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>4</v>
@@ -3679,10 +3700,10 @@
         <v>27</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>4</v>
@@ -3694,10 +3715,10 @@
         <v>28</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>4</v>
@@ -3709,10 +3730,10 @@
         <v>29</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>4</v>
@@ -3724,10 +3745,10 @@
         <v>30</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>4</v>
@@ -3739,10 +3760,10 @@
         <v>31</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>4</v>
@@ -3754,10 +3775,10 @@
         <v>32</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>4</v>
@@ -3769,10 +3790,10 @@
         <v>33</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>4</v>
@@ -3784,10 +3805,10 @@
         <v>34</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>4</v>
@@ -3799,10 +3820,10 @@
         <v>35</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>4</v>
@@ -3814,10 +3835,10 @@
         <v>36</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>4</v>
@@ -3832,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>4</v>
@@ -3847,10 +3868,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>4</v>
@@ -3862,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>4</v>
@@ -3877,10 +3898,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>4</v>
@@ -3892,10 +3913,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>4</v>
@@ -3907,10 +3928,10 @@
         <v>6</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>4</v>
@@ -3922,10 +3943,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>4</v>
@@ -3937,10 +3958,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>4</v>
@@ -3952,10 +3973,10 @@
         <v>9</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>4</v>
@@ -3967,10 +3988,10 @@
         <v>10</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>4</v>
@@ -3982,10 +4003,10 @@
         <v>11</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>4</v>
@@ -3997,10 +4018,10 @@
         <v>12</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>4</v>
@@ -4012,10 +4033,10 @@
         <v>13</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>4</v>
@@ -4027,10 +4048,10 @@
         <v>14</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>4</v>
@@ -4042,10 +4063,10 @@
         <v>15</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>4</v>
@@ -4057,10 +4078,10 @@
         <v>16</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>4</v>
@@ -4072,10 +4093,10 @@
         <v>17</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>4</v>
@@ -4087,10 +4108,10 @@
         <v>18</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>4</v>
@@ -4102,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>4</v>
@@ -4117,10 +4138,10 @@
         <v>20</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>4</v>
@@ -4132,10 +4153,10 @@
         <v>21</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>4</v>
@@ -4147,10 +4168,10 @@
         <v>22</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>4</v>
@@ -4162,10 +4183,10 @@
         <v>23</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>4</v>
@@ -4177,10 +4198,10 @@
         <v>24</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>4</v>
@@ -4192,10 +4213,10 @@
         <v>25</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>4</v>
@@ -4207,10 +4228,10 @@
         <v>26</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>4</v>
@@ -4222,10 +4243,10 @@
         <v>27</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>4</v>
@@ -4237,10 +4258,10 @@
         <v>28</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>4</v>
@@ -4252,10 +4273,10 @@
         <v>29</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>4</v>
@@ -4267,10 +4288,10 @@
         <v>30</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>4</v>
@@ -4282,10 +4303,10 @@
         <v>31</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>4</v>
@@ -4297,10 +4318,10 @@
         <v>32</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>4</v>
@@ -4312,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>4</v>
@@ -4327,10 +4348,10 @@
         <v>34</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>4</v>
@@ -4342,10 +4363,10 @@
         <v>35</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>4</v>
@@ -4357,10 +4378,10 @@
         <v>36</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>4</v>
@@ -4375,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>4</v>
@@ -4390,10 +4411,10 @@
         <v>2</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>4</v>
@@ -4405,10 +4426,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>4</v>
@@ -4420,10 +4441,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>4</v>
@@ -4435,10 +4456,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
@@ -4450,10 +4471,10 @@
         <v>6</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>4</v>
@@ -4465,10 +4486,10 @@
         <v>7</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>4</v>
@@ -4480,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
@@ -4495,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>4</v>
@@ -4510,10 +4531,10 @@
         <v>10</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>4</v>
@@ -4525,10 +4546,10 @@
         <v>11</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>4</v>
@@ -4540,10 +4561,10 @@
         <v>12</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>4</v>
@@ -4555,10 +4576,10 @@
         <v>13</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>4</v>
@@ -4570,10 +4591,10 @@
         <v>14</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>4</v>
@@ -4585,10 +4606,10 @@
         <v>15</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>4</v>
@@ -4600,10 +4621,10 @@
         <v>16</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>4</v>
@@ -4615,10 +4636,10 @@
         <v>17</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>4</v>
@@ -4630,10 +4651,10 @@
         <v>18</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>4</v>
@@ -4645,10 +4666,10 @@
         <v>19</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>4</v>
@@ -4660,10 +4681,10 @@
         <v>20</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>4</v>
@@ -4675,10 +4696,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>4</v>
@@ -4690,10 +4711,10 @@
         <v>22</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>4</v>
@@ -4705,10 +4726,10 @@
         <v>23</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>4</v>
@@ -4720,10 +4741,10 @@
         <v>24</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>4</v>
@@ -4735,10 +4756,10 @@
         <v>25</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>4</v>
@@ -4750,10 +4771,10 @@
         <v>26</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>4</v>
@@ -4765,10 +4786,10 @@
         <v>27</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>4</v>
@@ -4780,10 +4801,10 @@
         <v>28</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>4</v>
@@ -4795,10 +4816,10 @@
         <v>29</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>4</v>
@@ -4810,10 +4831,10 @@
         <v>30</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>4</v>
@@ -4825,10 +4846,10 @@
         <v>31</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>4</v>
@@ -4840,10 +4861,10 @@
         <v>32</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>4</v>
@@ -4855,10 +4876,10 @@
         <v>33</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>4</v>
@@ -4870,10 +4891,10 @@
         <v>34</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>4</v>
@@ -4885,10 +4906,10 @@
         <v>35</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>4</v>
@@ -4909,10 +4930,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>4</v>
@@ -4924,10 +4945,10 @@
         <v>2</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>4</v>
@@ -4939,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>4</v>
@@ -4954,10 +4975,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>4</v>
@@ -4969,10 +4990,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>4</v>
@@ -4984,10 +5005,10 @@
         <v>6</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>4</v>
@@ -4999,10 +5020,10 @@
         <v>7</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>4</v>
@@ -5014,10 +5035,10 @@
         <v>8</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>4</v>
@@ -5029,10 +5050,10 @@
         <v>9</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>4</v>
@@ -5044,10 +5065,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>4</v>
@@ -5059,10 +5080,10 @@
         <v>11</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>4</v>
@@ -5074,10 +5095,10 @@
         <v>12</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
@@ -5089,10 +5110,10 @@
         <v>13</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>4</v>
@@ -5104,10 +5125,10 @@
         <v>14</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>4</v>
@@ -5119,10 +5140,10 @@
         <v>15</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
@@ -5134,10 +5155,10 @@
         <v>16</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>4</v>
@@ -5149,10 +5170,10 @@
         <v>17</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>4</v>
@@ -5164,10 +5185,10 @@
         <v>18</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>4</v>
@@ -5179,10 +5200,10 @@
         <v>19</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>4</v>
@@ -5194,10 +5215,10 @@
         <v>20</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>4</v>
@@ -5209,10 +5230,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>4</v>
@@ -5224,10 +5245,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>4</v>
@@ -5247,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>4</v>
@@ -5262,10 +5283,10 @@
         <v>2</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>4</v>
@@ -5277,10 +5298,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>4</v>
@@ -5292,10 +5313,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>4</v>
@@ -5307,10 +5328,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>4</v>
@@ -5322,10 +5343,10 @@
         <v>6</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>4</v>
@@ -5337,10 +5358,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>4</v>
@@ -5352,10 +5373,10 @@
         <v>8</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>4</v>
@@ -5367,10 +5388,10 @@
         <v>9</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>4</v>
@@ -5382,10 +5403,10 @@
         <v>10</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>4</v>
@@ -5397,10 +5418,10 @@
         <v>11</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>4</v>
@@ -5412,10 +5433,10 @@
         <v>12</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>4</v>
@@ -5427,10 +5448,10 @@
         <v>13</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>4</v>
@@ -5442,10 +5463,10 @@
         <v>14</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>4</v>
@@ -5457,10 +5478,10 @@
         <v>15</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>4</v>
@@ -5472,10 +5493,10 @@
         <v>16</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>4</v>
@@ -5487,10 +5508,10 @@
         <v>17</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>4</v>
@@ -5502,10 +5523,10 @@
         <v>18</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>4</v>
@@ -5517,10 +5538,10 @@
         <v>19</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>4</v>
@@ -5532,10 +5553,10 @@
         <v>20</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>4</v>
@@ -5547,10 +5568,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>4</v>
@@ -5562,10 +5583,10 @@
         <v>22</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>4</v>
@@ -5577,10 +5598,10 @@
         <v>23</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>4</v>
@@ -5592,10 +5613,10 @@
         <v>24</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>4</v>
@@ -5607,10 +5628,10 @@
         <v>25</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>4</v>
@@ -5622,10 +5643,10 @@
         <v>26</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>4</v>
@@ -5637,10 +5658,10 @@
         <v>27</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>4</v>
@@ -5652,10 +5673,10 @@
         <v>28</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>4</v>
@@ -5667,10 +5688,10 @@
         <v>29</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>4</v>
@@ -5682,10 +5703,10 @@
         <v>30</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>4</v>
@@ -5697,10 +5718,10 @@
         <v>31</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>4</v>
@@ -5712,10 +5733,10 @@
         <v>32</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>4</v>
@@ -5727,10 +5748,10 @@
         <v>33</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
@@ -5742,10 +5763,10 @@
         <v>34</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>4</v>
@@ -5757,10 +5778,10 @@
         <v>35</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>4</v>
@@ -5780,10 +5801,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>4</v>
@@ -5795,10 +5816,10 @@
         <v>2</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>4</v>
@@ -5810,10 +5831,10 @@
         <v>3</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>4</v>
@@ -5825,10 +5846,10 @@
         <v>4</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>4</v>
@@ -5840,10 +5861,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>4</v>
@@ -5855,10 +5876,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>4</v>
@@ -5870,10 +5891,10 @@
         <v>7</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>4</v>
@@ -5885,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>4</v>
@@ -5900,10 +5921,10 @@
         <v>9</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>4</v>
@@ -5915,10 +5936,10 @@
         <v>10</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>4</v>
@@ -5930,10 +5951,10 @@
         <v>11</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>4</v>
@@ -5945,10 +5966,10 @@
         <v>12</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>4</v>
@@ -5960,10 +5981,10 @@
         <v>13</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>4</v>
@@ -5975,10 +5996,10 @@
         <v>14</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>4</v>
@@ -5990,10 +6011,10 @@
         <v>15</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>4</v>
@@ -6005,10 +6026,10 @@
         <v>16</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>4</v>
@@ -6020,10 +6041,10 @@
         <v>17</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>4</v>
@@ -6035,10 +6056,10 @@
         <v>18</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>4</v>
@@ -6050,10 +6071,10 @@
         <v>19</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>4</v>
@@ -6073,10 +6094,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>4</v>
@@ -6088,10 +6109,10 @@
         <v>2</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>4</v>
@@ -6103,10 +6124,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>4</v>
@@ -6118,10 +6139,10 @@
         <v>4</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>4</v>
@@ -6133,10 +6154,10 @@
         <v>5</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>4</v>
@@ -6148,10 +6169,10 @@
         <v>6</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>4</v>
@@ -6163,10 +6184,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>4</v>
@@ -6178,10 +6199,10 @@
         <v>8</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>4</v>
@@ -6193,10 +6214,10 @@
         <v>9</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>4</v>
@@ -6208,10 +6229,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
@@ -6223,10 +6244,10 @@
         <v>11</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>4</v>
@@ -6238,10 +6259,10 @@
         <v>12</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>4</v>
@@ -6253,10 +6274,10 @@
         <v>13</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>4</v>
@@ -6268,10 +6289,10 @@
         <v>14</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>4</v>
@@ -6283,10 +6304,10 @@
         <v>15</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>4</v>
@@ -6298,10 +6319,10 @@
         <v>16</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>4</v>
@@ -6313,10 +6334,10 @@
         <v>17</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>4</v>
@@ -6328,10 +6349,10 @@
         <v>18</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>4</v>
@@ -6343,10 +6364,10 @@
         <v>19</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>4</v>
@@ -6358,10 +6379,10 @@
         <v>20</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>4</v>
@@ -6373,10 +6394,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>4</v>
@@ -6388,10 +6409,10 @@
         <v>22</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>4</v>
@@ -6403,10 +6424,10 @@
         <v>23</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>4</v>
@@ -6418,10 +6439,10 @@
         <v>24</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>4</v>
@@ -6433,10 +6454,10 @@
         <v>25</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>4</v>
@@ -6448,10 +6469,10 @@
         <v>26</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>4</v>
@@ -6463,10 +6484,10 @@
         <v>27</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>4</v>
@@ -6478,10 +6499,10 @@
         <v>28</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>4</v>
@@ -6493,10 +6514,10 @@
         <v>29</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>4</v>
@@ -6508,10 +6529,10 @@
         <v>30</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>4</v>
@@ -6523,10 +6544,10 @@
         <v>31</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>4</v>
@@ -6538,10 +6559,10 @@
         <v>32</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>4</v>
@@ -6553,10 +6574,10 @@
         <v>33</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>4</v>
@@ -6568,10 +6589,10 @@
         <v>34</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>4</v>
@@ -6583,10 +6604,10 @@
         <v>35</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>4</v>
@@ -6598,10 +6619,10 @@
         <v>36</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>4</v>
@@ -6613,10 +6634,10 @@
         <v>37</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>4</v>
@@ -6628,10 +6649,10 @@
         <v>38</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>4</v>
@@ -6647,10 +6668,10 @@
     </row>
     <row r="336" spans="1:4" ht="21">
       <c r="B336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>4</v>
@@ -6658,10 +6679,10 @@
     </row>
     <row r="337" spans="2:4" ht="21">
       <c r="B337" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>4</v>
@@ -6669,10 +6690,10 @@
     </row>
     <row r="338" spans="2:4" ht="21">
       <c r="B338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>4</v>
@@ -6680,10 +6701,10 @@
     </row>
     <row r="339" spans="2:4" ht="21">
       <c r="B339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>4</v>
@@ -6691,10 +6712,10 @@
     </row>
     <row r="340" spans="2:4" ht="21">
       <c r="B340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>4</v>
@@ -6702,10 +6723,10 @@
     </row>
     <row r="341" spans="2:4" ht="21">
       <c r="B341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>4</v>
@@ -6713,10 +6734,10 @@
     </row>
     <row r="342" spans="2:4" ht="21">
       <c r="B342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
@@ -6724,10 +6745,10 @@
     </row>
     <row r="343" spans="2:4" ht="21">
       <c r="B343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>4</v>
@@ -6735,10 +6756,10 @@
     </row>
     <row r="344" spans="2:4" ht="21">
       <c r="B344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>4</v>
@@ -6746,10 +6767,10 @@
     </row>
     <row r="345" spans="2:4" ht="21">
       <c r="B345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>4</v>
@@ -6757,10 +6778,10 @@
     </row>
     <row r="346" spans="2:4" ht="21">
       <c r="B346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>4</v>
@@ -6768,10 +6789,10 @@
     </row>
     <row r="347" spans="2:4" ht="21">
       <c r="B347" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>4</v>
@@ -6779,10 +6800,10 @@
     </row>
     <row r="348" spans="2:4" ht="21">
       <c r="B348" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>4</v>
@@ -6790,10 +6811,10 @@
     </row>
     <row r="349" spans="2:4" ht="21">
       <c r="B349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>4</v>
@@ -6801,10 +6822,10 @@
     </row>
     <row r="350" spans="2:4" ht="21">
       <c r="B350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>4</v>
@@ -6812,10 +6833,10 @@
     </row>
     <row r="351" spans="2:4" ht="21">
       <c r="B351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>4</v>
@@ -6823,10 +6844,10 @@
     </row>
     <row r="352" spans="2:4" ht="21">
       <c r="B352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>4</v>
@@ -6834,10 +6855,10 @@
     </row>
     <row r="353" spans="2:4" ht="21">
       <c r="B353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>4</v>
@@ -6853,10 +6874,10 @@
     </row>
     <row r="356" spans="2:4" ht="21">
       <c r="B356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>4</v>
@@ -6864,10 +6885,10 @@
     </row>
     <row r="357" spans="2:4" ht="21">
       <c r="B357" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>4</v>
@@ -6875,10 +6896,10 @@
     </row>
     <row r="358" spans="2:4" ht="21">
       <c r="B358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>4</v>
@@ -6886,10 +6907,10 @@
     </row>
     <row r="359" spans="2:4" ht="21">
       <c r="B359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>4</v>
@@ -6897,10 +6918,10 @@
     </row>
     <row r="360" spans="2:4" ht="21">
       <c r="B360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>4</v>
@@ -6908,10 +6929,10 @@
     </row>
     <row r="361" spans="2:4" ht="21">
       <c r="B361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>4</v>
@@ -6919,10 +6940,10 @@
     </row>
     <row r="362" spans="2:4" ht="21">
       <c r="B362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>4</v>
@@ -6930,10 +6951,10 @@
     </row>
     <row r="363" spans="2:4" ht="21">
       <c r="B363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>4</v>
@@ -6941,10 +6962,10 @@
     </row>
     <row r="364" spans="2:4" ht="21">
       <c r="B364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>4</v>
@@ -6952,10 +6973,10 @@
     </row>
     <row r="365" spans="2:4" ht="21">
       <c r="B365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>4</v>
@@ -6963,10 +6984,10 @@
     </row>
     <row r="366" spans="2:4" ht="21">
       <c r="B366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>4</v>
@@ -6974,10 +6995,10 @@
     </row>
     <row r="367" spans="2:4" ht="21">
       <c r="B367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>4</v>
@@ -6985,10 +7006,10 @@
     </row>
     <row r="368" spans="2:4" ht="21">
       <c r="B368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>4</v>
@@ -6996,10 +7017,10 @@
     </row>
     <row r="369" spans="2:4" ht="21">
       <c r="B369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>4</v>
@@ -7007,10 +7028,10 @@
     </row>
     <row r="370" spans="2:4" ht="21">
       <c r="B370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>4</v>
@@ -7018,10 +7039,10 @@
     </row>
     <row r="371" spans="2:4" ht="21">
       <c r="B371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>4</v>
@@ -7029,10 +7050,10 @@
     </row>
     <row r="372" spans="2:4" ht="21">
       <c r="B372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>4</v>
@@ -7040,10 +7061,10 @@
     </row>
     <row r="373" spans="2:4" ht="21">
       <c r="B373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
@@ -7051,10 +7072,10 @@
     </row>
     <row r="374" spans="2:4" ht="21">
       <c r="B374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>4</v>
@@ -7062,10 +7083,10 @@
     </row>
     <row r="375" spans="2:4" ht="21">
       <c r="B375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>4</v>
@@ -7073,10 +7094,10 @@
     </row>
     <row r="376" spans="2:4" ht="21">
       <c r="B376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>4</v>
@@ -7084,10 +7105,10 @@
     </row>
     <row r="377" spans="2:4" ht="21">
       <c r="B377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>4</v>
@@ -7095,10 +7116,10 @@
     </row>
     <row r="378" spans="2:4" ht="21">
       <c r="B378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>4</v>
@@ -7106,10 +7127,10 @@
     </row>
     <row r="379" spans="2:4" ht="21">
       <c r="B379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>4</v>
@@ -7117,10 +7138,10 @@
     </row>
     <row r="380" spans="2:4" ht="21">
       <c r="B380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>4</v>
@@ -7128,10 +7149,10 @@
     </row>
     <row r="381" spans="2:4" ht="21">
       <c r="B381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>4</v>
@@ -7139,10 +7160,10 @@
     </row>
     <row r="382" spans="2:4" ht="21">
       <c r="B382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>4</v>
@@ -7150,10 +7171,10 @@
     </row>
     <row r="383" spans="2:4" ht="21">
       <c r="B383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>4</v>
@@ -7161,10 +7182,10 @@
     </row>
     <row r="384" spans="2:4" ht="21">
       <c r="B384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>4</v>
@@ -7172,10 +7193,10 @@
     </row>
     <row r="385" spans="2:4" ht="21">
       <c r="B385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>4</v>
@@ -7183,10 +7204,10 @@
     </row>
     <row r="386" spans="2:4" ht="21">
       <c r="B386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>4</v>
@@ -7194,10 +7215,10 @@
     </row>
     <row r="387" spans="2:4" ht="21">
       <c r="B387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>4</v>
@@ -7205,10 +7226,10 @@
     </row>
     <row r="388" spans="2:4" ht="21">
       <c r="B388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>4</v>
@@ -7216,10 +7237,10 @@
     </row>
     <row r="389" spans="2:4" ht="21">
       <c r="B389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>4</v>
@@ -7227,10 +7248,10 @@
     </row>
     <row r="390" spans="2:4" ht="21">
       <c r="B390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>4</v>
@@ -7238,10 +7259,10 @@
     </row>
     <row r="391" spans="2:4" ht="21">
       <c r="B391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>4</v>
@@ -7249,10 +7270,10 @@
     </row>
     <row r="392" spans="2:4" ht="21">
       <c r="B392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>4</v>
@@ -7260,10 +7281,10 @@
     </row>
     <row r="393" spans="2:4" ht="21">
       <c r="B393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>4</v>
@@ -7271,10 +7292,10 @@
     </row>
     <row r="394" spans="2:4" ht="21">
       <c r="B394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>4</v>
@@ -7282,10 +7303,10 @@
     </row>
     <row r="395" spans="2:4" ht="21">
       <c r="B395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>4</v>
@@ -7293,10 +7314,10 @@
     </row>
     <row r="396" spans="2:4" ht="21">
       <c r="B396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>4</v>
@@ -7304,10 +7325,10 @@
     </row>
     <row r="397" spans="2:4" ht="21">
       <c r="B397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>4</v>
@@ -7315,10 +7336,10 @@
     </row>
     <row r="398" spans="2:4" ht="21">
       <c r="B398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>4</v>
@@ -7326,10 +7347,10 @@
     </row>
     <row r="399" spans="2:4" ht="21">
       <c r="B399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>4</v>
@@ -7345,10 +7366,10 @@
     </row>
     <row r="402" spans="2:4" ht="21">
       <c r="B402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C402" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>4</v>
@@ -7356,10 +7377,10 @@
     </row>
     <row r="403" spans="2:4" ht="21">
       <c r="B403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>4</v>
@@ -7367,10 +7388,10 @@
     </row>
     <row r="404" spans="2:4" ht="21">
       <c r="B404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>4</v>
@@ -7378,10 +7399,10 @@
     </row>
     <row r="405" spans="2:4" ht="21">
       <c r="B405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>4</v>
@@ -7389,10 +7410,10 @@
     </row>
     <row r="406" spans="2:4" ht="21">
       <c r="B406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>4</v>
@@ -7400,10 +7421,10 @@
     </row>
     <row r="407" spans="2:4" ht="21">
       <c r="B407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>4</v>
@@ -7419,10 +7440,10 @@
     </row>
     <row r="410" spans="2:4" ht="21">
       <c r="B410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C410" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>4</v>
@@ -7430,10 +7451,10 @@
     </row>
     <row r="411" spans="2:4" ht="21">
       <c r="B411" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>4</v>
@@ -7441,10 +7462,10 @@
     </row>
     <row r="412" spans="2:4" ht="21">
       <c r="B412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>4</v>
@@ -7452,10 +7473,10 @@
     </row>
     <row r="413" spans="2:4" ht="21">
       <c r="B413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>4</v>
@@ -7463,10 +7484,10 @@
     </row>
     <row r="414" spans="2:4" ht="21">
       <c r="B414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>4</v>
@@ -7474,10 +7495,10 @@
     </row>
     <row r="415" spans="2:4" ht="21">
       <c r="B415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>4</v>
@@ -7485,10 +7506,10 @@
     </row>
     <row r="416" spans="2:4" ht="21">
       <c r="B416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>4</v>
@@ -7496,10 +7517,10 @@
     </row>
     <row r="417" spans="2:4" ht="21">
       <c r="B417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>4</v>
@@ -7507,10 +7528,10 @@
     </row>
     <row r="418" spans="2:4" ht="21">
       <c r="B418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>4</v>
@@ -7518,10 +7539,10 @@
     </row>
     <row r="419" spans="2:4" ht="21">
       <c r="B419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>4</v>
@@ -7529,10 +7550,10 @@
     </row>
     <row r="420" spans="2:4" ht="21">
       <c r="B420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>4</v>
@@ -7540,10 +7561,10 @@
     </row>
     <row r="421" spans="2:4" ht="21">
       <c r="B421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>4</v>
@@ -7551,10 +7572,10 @@
     </row>
     <row r="422" spans="2:4" ht="21">
       <c r="B422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>4</v>
@@ -7562,10 +7583,10 @@
     </row>
     <row r="423" spans="2:4" ht="21">
       <c r="B423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>4</v>
@@ -7573,10 +7594,10 @@
     </row>
     <row r="424" spans="2:4" ht="21">
       <c r="B424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>4</v>
@@ -7584,10 +7605,10 @@
     </row>
     <row r="425" spans="2:4" ht="21">
       <c r="B425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>4</v>
@@ -7595,10 +7616,10 @@
     </row>
     <row r="426" spans="2:4" ht="21">
       <c r="B426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>4</v>
@@ -7606,10 +7627,10 @@
     </row>
     <row r="427" spans="2:4" ht="21">
       <c r="B427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>4</v>
@@ -7617,10 +7638,10 @@
     </row>
     <row r="428" spans="2:4" ht="21">
       <c r="B428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>4</v>
@@ -7628,10 +7649,10 @@
     </row>
     <row r="429" spans="2:4" ht="21">
       <c r="B429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>4</v>
@@ -7639,10 +7660,10 @@
     </row>
     <row r="430" spans="2:4" ht="21">
       <c r="B430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>4</v>
@@ -7650,10 +7671,10 @@
     </row>
     <row r="431" spans="2:4" ht="21">
       <c r="B431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>4</v>
@@ -7661,10 +7682,10 @@
     </row>
     <row r="432" spans="2:4" ht="21">
       <c r="B432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>4</v>
@@ -7672,10 +7693,10 @@
     </row>
     <row r="433" spans="2:4" ht="21">
       <c r="B433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>4</v>
@@ -7683,10 +7704,10 @@
     </row>
     <row r="434" spans="2:4" ht="21">
       <c r="B434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>4</v>
@@ -7694,10 +7715,10 @@
     </row>
     <row r="435" spans="2:4" ht="21">
       <c r="B435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>4</v>
@@ -7705,10 +7726,10 @@
     </row>
     <row r="436" spans="2:4" ht="21">
       <c r="B436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>4</v>
@@ -7716,10 +7737,10 @@
     </row>
     <row r="437" spans="2:4" ht="21">
       <c r="B437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>4</v>
@@ -7727,10 +7748,10 @@
     </row>
     <row r="438" spans="2:4" ht="21">
       <c r="B438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>4</v>
@@ -7738,10 +7759,10 @@
     </row>
     <row r="439" spans="2:4" ht="21">
       <c r="B439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>4</v>
@@ -7749,10 +7770,10 @@
     </row>
     <row r="440" spans="2:4" ht="21">
       <c r="B440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>4</v>
@@ -7760,10 +7781,10 @@
     </row>
     <row r="441" spans="2:4" ht="21">
       <c r="B441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>4</v>
@@ -7771,10 +7792,10 @@
     </row>
     <row r="442" spans="2:4" ht="21">
       <c r="B442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>4</v>
@@ -7782,10 +7803,10 @@
     </row>
     <row r="443" spans="2:4" ht="21">
       <c r="B443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>4</v>
@@ -7793,10 +7814,10 @@
     </row>
     <row r="444" spans="2:4" ht="21">
       <c r="B444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>4</v>
@@ -7804,10 +7825,10 @@
     </row>
     <row r="445" spans="2:4" ht="21">
       <c r="B445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>4</v>
@@ -7815,10 +7836,10 @@
     </row>
     <row r="446" spans="2:4" ht="21">
       <c r="B446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>4</v>
@@ -7826,10 +7847,10 @@
     </row>
     <row r="447" spans="2:4" ht="21">
       <c r="B447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>4</v>
@@ -7837,10 +7858,10 @@
     </row>
     <row r="448" spans="2:4" ht="21">
       <c r="B448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>4</v>
@@ -7848,10 +7869,10 @@
     </row>
     <row r="449" spans="2:4" ht="21">
       <c r="B449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>4</v>
@@ -7859,10 +7880,10 @@
     </row>
     <row r="450" spans="2:4" ht="21">
       <c r="B450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>4</v>
@@ -7870,10 +7891,10 @@
     </row>
     <row r="451" spans="2:4" ht="21">
       <c r="B451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>4</v>
@@ -7881,10 +7902,10 @@
     </row>
     <row r="452" spans="2:4" ht="21">
       <c r="B452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>4</v>
@@ -7892,10 +7913,10 @@
     </row>
     <row r="453" spans="2:4" ht="21">
       <c r="B453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>4</v>
@@ -7903,10 +7924,10 @@
     </row>
     <row r="454" spans="2:4" ht="21">
       <c r="B454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>4</v>
@@ -7914,10 +7935,10 @@
     </row>
     <row r="455" spans="2:4" ht="21">
       <c r="B455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>4</v>
@@ -7925,10 +7946,10 @@
     </row>
     <row r="456" spans="2:4" ht="21">
       <c r="B456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>4</v>
@@ -7936,10 +7957,10 @@
     </row>
     <row r="457" spans="2:4" ht="21">
       <c r="B457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>4</v>
@@ -7947,10 +7968,10 @@
     </row>
     <row r="458" spans="2:4" ht="21">
       <c r="B458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>4</v>
@@ -7958,10 +7979,10 @@
     </row>
     <row r="459" spans="2:4" ht="21">
       <c r="B459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>4</v>
@@ -7969,10 +7990,10 @@
     </row>
     <row r="460" spans="2:4" ht="21">
       <c r="B460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>4</v>
@@ -7980,10 +8001,10 @@
     </row>
     <row r="461" spans="2:4" ht="21">
       <c r="B461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>4</v>
@@ -7991,10 +8012,10 @@
     </row>
     <row r="462" spans="2:4" ht="21">
       <c r="B462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>4</v>
@@ -8002,10 +8023,10 @@
     </row>
     <row r="463" spans="2:4" ht="21">
       <c r="B463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>4</v>
@@ -8013,10 +8034,10 @@
     </row>
     <row r="464" spans="2:4" ht="21">
       <c r="B464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>4</v>
@@ -8024,10 +8045,10 @@
     </row>
     <row r="465" spans="2:4" ht="21">
       <c r="B465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>4</v>
@@ -8035,10 +8056,10 @@
     </row>
     <row r="466" spans="2:4" ht="21">
       <c r="B466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>4</v>
@@ -8046,10 +8067,10 @@
     </row>
     <row r="467" spans="2:4" ht="21">
       <c r="B467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>4</v>
@@ -8057,10 +8078,10 @@
     </row>
     <row r="468" spans="2:4" ht="21">
       <c r="B468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>4</v>
@@ -8068,10 +8089,10 @@
     </row>
     <row r="469" spans="2:4" ht="21">
       <c r="B469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>4</v>
@@ -8088,10 +8109,10 @@
     </row>
     <row r="472" spans="2:4" ht="21">
       <c r="B472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>4</v>
@@ -8099,10 +8120,10 @@
     </row>
     <row r="473" spans="2:4" ht="21">
       <c r="B473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>4</v>
@@ -8110,10 +8131,10 @@
     </row>
     <row r="474" spans="2:4" ht="21">
       <c r="B474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>4</v>
@@ -8121,10 +8142,10 @@
     </row>
     <row r="475" spans="2:4" ht="21">
       <c r="B475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>4</v>
@@ -8132,10 +8153,10 @@
     </row>
     <row r="476" spans="2:4" ht="21">
       <c r="B476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>4</v>
@@ -8143,10 +8164,10 @@
     </row>
     <row r="477" spans="2:4" ht="21">
       <c r="B477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>4</v>
@@ -8154,10 +8175,10 @@
     </row>
     <row r="478" spans="2:4" ht="21">
       <c r="B478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>4</v>
@@ -8165,10 +8186,10 @@
     </row>
     <row r="479" spans="2:4" ht="21">
       <c r="B479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>4</v>
@@ -8176,10 +8197,10 @@
     </row>
     <row r="480" spans="2:4" ht="21">
       <c r="B480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>4</v>
@@ -8187,10 +8208,10 @@
     </row>
     <row r="481" spans="2:4" ht="21">
       <c r="B481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>4</v>
@@ -8241,7 +8262,7 @@
     <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
     <hyperlink ref="C49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
     <hyperlink ref="C50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C51" r:id="rId44" display="Rotate matrix by 90 degrees" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
     <hyperlink ref="C52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
     <hyperlink ref="C53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
     <hyperlink ref="C56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E576E1-094A-46C8-B251-B7B4B4BF3400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B161E-9CEE-482D-B53D-06DE6B311C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B161E-9CEE-482D-B53D-06DE6B311C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC03D3-FA55-451F-93E3-98326BBA82BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC03D3-FA55-451F-93E3-98326BBA82BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D37F3-5B0E-459A-8B20-14FD37ABADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,6 +1575,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1892,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2835,18 +2839,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="21">
-      <c r="A68">
+    <row r="68" spans="1:4" s="13" customFormat="1" ht="21">
+      <c r="A68" s="13">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="16" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D37F3-5B0E-459A-8B20-14FD37ABADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF0D0F-A997-41DB-BE24-B2B5329E7837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\Babbars-Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\DSA-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF0D0F-A997-41DB-BE24-B2B5329E7837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F621183-07BA-4489-90D6-DB38FBFA5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\DSA-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F621183-07BA-4489-90D6-DB38FBFA5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236F18A-0651-441F-BD64-6DD36464F276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1510,7 +1510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1520,6 +1520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,10 +1581,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1896,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2839,18 +2849,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="13" customFormat="1" ht="21">
-      <c r="A68" s="13">
+    <row r="68" spans="1:4" s="17" customFormat="1" ht="21">
+      <c r="A68" s="17">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="20" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\DSA-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236F18A-0651-441F-BD64-6DD36464F276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E912FC1-BA4C-4F97-BA90-1D81EA2FCAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>Rotate matrix by 90 degrees (Clockwise and anticlockwise)</t>
+  </si>
+  <si>
+    <t>Sorted Array to BST</t>
   </si>
 </sst>
 </file>
@@ -1906,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5269,7 +5272,15 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="21">
-      <c r="C236" s="7"/>
+      <c r="A236">
+        <v>23</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="1:4" ht="21">
@@ -8681,8 +8692,9 @@
     <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="C42" r:id="rId447" xr:uid="{E3C7C778-400E-4040-8C40-EB13BAE7335A}"/>
     <hyperlink ref="C54" r:id="rId448" xr:uid="{D63F5A5F-094C-45DC-8BA6-D7BE5581DA1D}"/>
+    <hyperlink ref="C236" r:id="rId449" xr:uid="{27C9C804-31C5-4DD6-838B-B1DB78F95E7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId449"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId450"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\DSA-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E912FC1-BA4C-4F97-BA90-1D81EA2FCAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33635CEF-2FED-4BC5-ADA9-85DBF07740D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1546,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,6 +1592,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1909,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4632,18 +4636,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21">
-      <c r="A192">
+    <row r="192" spans="1:4" s="13" customFormat="1" ht="21">
+      <c r="A192" s="13">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5181,33 +5185,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21">
-      <c r="A230">
+    <row r="230" spans="1:4" s="13" customFormat="1" ht="21">
+      <c r="A230" s="13">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="21">
-      <c r="A231">
+      <c r="D230" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="13" customFormat="1" ht="21">
+      <c r="A231" s="13">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D231" s="16" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering\SE COMP 2020\Data Structures\DSA-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33635CEF-2FED-4BC5-ADA9-85DBF07740D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A1B5C-F3DD-4A52-A74D-8836C4DF7D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3430,18 +3430,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="21">
-      <c r="A108">
+    <row r="108" spans="1:4" s="13" customFormat="1" ht="21">
+      <c r="A108" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="16" t="s">
         <v>4</v>
       </c>
     </row>
